--- a/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>82,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,31</t>
+          <t>-12,54; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,51</t>
+          <t>-13,29; 18,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,86</t>
+          <t>2,9; 33,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 206,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 529,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 828,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-73,84; 210,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-63,98%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,55</t>
+          <t>-2,26; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,73</t>
+          <t>-1,22; 3,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,65</t>
+          <t>-1,37; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,88</t>
+          <t>-2,75; 2,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,51; 236,56</t>
+          <t>-46,34; 206,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 526,28</t>
+          <t>-48,07; 529,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,61; 797,7</t>
+          <t>-63,11; 828,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,84; 210,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>114,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,87%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 0,0</t>
+          <t>-2,49; 4,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 18,36</t>
+          <t>-2,54; 3,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>-0,87; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 0,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,38; 241,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 874,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,04; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>114,18%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-63,98%</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,14</t>
+          <t>-2,66; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,05</t>
+          <t>-0,73; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,11</t>
+          <t>-1,13; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,77</t>
+          <t>-3,79; 0,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 241,17</t>
+          <t>-82,51; 236,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 874,21</t>
+          <t>-36,59; 526,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,04; —</t>
+          <t>-61,61; 797,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 0,0</t>
+          <t>-12,66; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 18,36</t>
+          <t>-10,16; 17,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>2,71; 33,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,95</t>
+          <t>-3,33; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,76</t>
+          <t>-6,14; 1,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 4,0</t>
+          <t>-4,69; 3,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,75</t>
+          <t>-6,57; -0,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 250,9</t>
+          <t>-65,93; 242,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,92; 128,22</t>
+          <t>-88,61; 135,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,89; 349,21</t>
+          <t>-87,0; 300,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,31</t>
+          <t>-2,13; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,51</t>
+          <t>-1,24; 3,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,86</t>
+          <t>-1,05; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,68</t>
+          <t>-2,55; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 206,92</t>
+          <t>-46,27; 186,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 529,58</t>
+          <t>-54,37; 407,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 828,03</t>
+          <t>-64,3; 562,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,84; 210,03</t>
+          <t>-70,52; 221,21</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,14</t>
+          <t>-2,76; 4,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,05</t>
+          <t>-2,39; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,11</t>
+          <t>-0,77; 4,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,77</t>
+          <t>-3,43; 0,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 241,17</t>
+          <t>-63,73; 327,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 874,21</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,04; —</t>
+          <t>-57,98; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 133,03</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,55</t>
+          <t>-2,58; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,73</t>
+          <t>-0,85; 5,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,65</t>
+          <t>-1,36; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,88</t>
+          <t>-3,61; 1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-82,51; 236,56</t>
+          <t>-80,25; 283,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 526,28</t>
+          <t>-36,04; 494,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,61; 797,7</t>
+          <t>-70,96; 812,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,86</t>
+          <t>-1,28; 1,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,15</t>
+          <t>-0,71; 2,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,59</t>
+          <t>-0,1; 2,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,19</t>
+          <t>-2,34; 0,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 78,06</t>
+          <t>-33,13; 75,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 113,67</t>
+          <t>-26,31; 122,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 229,47</t>
+          <t>-10,22; 244,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,86; 17,76</t>
+          <t>-78,01; 10,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 0,0</t>
+          <t>-10,19; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 17,98</t>
+          <t>-10,27; 18,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 33,13</t>
+          <t>2,77; 32,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,57</t>
+          <t>-3,57; 4,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,78</t>
+          <t>-6,75; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,52</t>
+          <t>-4,39; 3,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,7</t>
+          <t>-6,47; -0,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 242,89</t>
+          <t>-64,7; 230,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,61; 135,1</t>
+          <t>-89,47; 78,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,0; 300,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,22</t>
+          <t>-2,11; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,52</t>
+          <t>-1,26; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,16</t>
+          <t>-1,26; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,73</t>
+          <t>-2,48; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 186,49</t>
+          <t>-46,43; 205,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 407,79</t>
+          <t>-54,71; 377,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 562,64</t>
+          <t>-66,28; 458,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 221,21</t>
+          <t>-69,07; 240,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,41</t>
+          <t>-2,62; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,08</t>
+          <t>-2,26; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,17</t>
+          <t>-0,84; 4,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,64</t>
+          <t>-3,49; 0,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 327,91</t>
+          <t>-58,16; 255,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,98; —</t>
+          <t>-70,79; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 133,03</t>
+          <t>-100,0; 189,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,49</t>
+          <t>-2,74; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,55</t>
+          <t>-0,72; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,64</t>
+          <t>-1,33; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,13</t>
+          <t>-3,78; 0,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-80,25; 283,67</t>
+          <t>-79,69; 277,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 494,89</t>
+          <t>-31,97; 558,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 812,09</t>
+          <t>-65,06; 910,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,77</t>
+          <t>-1,23; 1,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,17</t>
+          <t>-0,76; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,58</t>
+          <t>-0,16; 2,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,13</t>
+          <t>-2,31; 0,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 75,54</t>
+          <t>-32,48; 80,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 122,92</t>
+          <t>-26,2; 129,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 244,2</t>
+          <t>-11,09; 234,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,01; 10,72</t>
+          <t>-77,27; 24,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-24,9%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>82,38%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 0,0</t>
+          <t>-3,21; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 18,1</t>
+          <t>-5,39; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 32,17</t>
+          <t>-2,11; 6,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; -0,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,09; 200,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,24; 137,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,45; 752,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-46,63%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,32%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-4,06%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,51</t>
+          <t>-2,26; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,16</t>
+          <t>-1,22; 3,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,33</t>
+          <t>-1,37; 2,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -0,72</t>
+          <t>-3,03; 2,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,7; 230,71</t>
+          <t>-46,34; 206,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 78,25</t>
+          <t>-48,07; 529,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,11; 828,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,81; 188,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>114,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>-55,75%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,23</t>
+          <t>-2,49; 4,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,24</t>
+          <t>-2,54; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,73</t>
+          <t>-0,87; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,9</t>
+          <t>-3,26; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 205,4</t>
+          <t>-61,38; 241,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 377,55</t>
+          <t>-100,0; 874,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 458,83</t>
+          <t>-68,04; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 240,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>114,18%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-63,8%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,49</t>
+          <t>-2,66; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,08</t>
+          <t>-0,73; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,3</t>
+          <t>-1,13; 3,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,76</t>
+          <t>-3,63; 0,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 255,82</t>
+          <t>-82,51; 236,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>-36,59; 526,28</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-61,61; 797,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-70,79; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 189,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-63,98%</t>
+          <t>-48,9%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,42</t>
+          <t>-1,33; 1,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,29</t>
+          <t>-0,77; 2,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,82</t>
+          <t>-0,18; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,88</t>
+          <t>-2,4; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-79,69; 277,8</t>
+          <t>-34,82; 78,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 558,31</t>
+          <t>-27,86; 113,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 910,43</t>
+          <t>-13,18; 229,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-78,1; 14,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>29,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>72,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-46,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 1,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 2,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 2,63</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 0,28</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 80,1</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-26,2; 129,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 234,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-77,27; 24,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
